--- a/data/trans_dic/LAWTONB_2R3-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/LAWTONB_2R3-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1388807527244704</v>
+        <v>0.1304652304278231</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2079371065069536</v>
+        <v>0.2096916697855641</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1488020270475675</v>
+        <v>0.1499671110076074</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2218497847227665</v>
+        <v>0.2245535981639684</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1913199508747956</v>
+        <v>0.1880367931083363</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2738299442828227</v>
+        <v>0.2728325109121716</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.262149675100327</v>
+        <v>0.2616003707889406</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3800571126399243</v>
+        <v>0.3824436671055932</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1818803625112858</v>
+        <v>0.1828776214943705</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.26488669324377</v>
+        <v>0.2649844606505946</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2316993430204798</v>
+        <v>0.2339371972963274</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3532306913427747</v>
+        <v>0.3469169679109547</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2651866154903171</v>
+        <v>0.263150754249377</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.366437919316314</v>
+        <v>0.3729521511718249</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2653603107891195</v>
+        <v>0.2691365976162096</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4152684041234436</v>
+        <v>0.4026119169677662</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2902158166426186</v>
+        <v>0.2920993108601485</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4038429176535495</v>
+        <v>0.4083442806662517</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3824264805270288</v>
+        <v>0.3930408780972177</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5072167268910667</v>
+        <v>0.5048368303961972</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2629145817802327</v>
+        <v>0.264642181162041</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3651254656230456</v>
+        <v>0.3665184625950096</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3187830203035852</v>
+        <v>0.3230073900462785</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4567412798277893</v>
+        <v>0.4514471474363301</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.2121925995582131</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.3074205502816795</v>
+        <v>0.3074205502816796</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.1435978629860872</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09511932609369028</v>
+        <v>0.09746233852009994</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1354804793549224</v>
+        <v>0.136722865257103</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.09365269977134767</v>
+        <v>0.08933203829313009</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1519198901703492</v>
+        <v>0.1569371579955895</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.09997490217195062</v>
+        <v>0.09536856473459746</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2133114165851479</v>
+        <v>0.2161160703578568</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1541896233957391</v>
+        <v>0.1528215333664612</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2696476981283262</v>
+        <v>0.264853724255488</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1060059052720683</v>
+        <v>0.111889548677565</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1987180454472716</v>
+        <v>0.2003722298638802</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1413625070602829</v>
+        <v>0.1421984400568111</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2347477162973282</v>
+        <v>0.2363819664508972</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2085090743240684</v>
+        <v>0.2083324327671129</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2663261024964189</v>
+        <v>0.2715074073519966</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1883699083335905</v>
+        <v>0.1872703794410348</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2441142243166276</v>
+        <v>0.24888145869449</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1992334953666171</v>
+        <v>0.1958079790998906</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3301150911575835</v>
+        <v>0.3361100171316441</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2772764854878936</v>
+        <v>0.2759512246176259</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3484628914507026</v>
+        <v>0.3458411742883153</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.180288692226386</v>
+        <v>0.184951929922306</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2833801182662053</v>
+        <v>0.2868855994030584</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2219302738496345</v>
+        <v>0.2207896649393397</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2926211506293639</v>
+        <v>0.2950020867890485</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04357307167758969</v>
+        <v>0.04493722354978324</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1189987980951295</v>
+        <v>0.1226289284124477</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07935123634607875</v>
+        <v>0.07615062999186398</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0870335946986673</v>
+        <v>0.08368217288455292</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.101813523312638</v>
+        <v>0.0990094192483712</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1397088566639627</v>
+        <v>0.1414130638364782</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.164576611267932</v>
+        <v>0.1645924219872389</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2072102597160007</v>
+        <v>0.2107162014205356</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.08433458733667802</v>
+        <v>0.08335983946063304</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1468505991598048</v>
+        <v>0.1485224275026865</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1354361267317793</v>
+        <v>0.1402599790354233</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1597025247350216</v>
+        <v>0.1602542692475009</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.137406838552861</v>
+        <v>0.1392854917974377</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2519273092695825</v>
+        <v>0.2493197570311674</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1893737924538251</v>
+        <v>0.1817567689731435</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1545750133911632</v>
+        <v>0.151468757424828</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2257598987494086</v>
+        <v>0.2305194194996384</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2636206712664527</v>
+        <v>0.2654245290338194</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3122874589702933</v>
+        <v>0.3056562404973677</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2943555337538154</v>
+        <v>0.2964521380351728</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1654748196374867</v>
+        <v>0.1601458984541532</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2357647043820882</v>
+        <v>0.2370903196583919</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2276881066860356</v>
+        <v>0.2294879795737096</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2135880587536836</v>
+        <v>0.2159313692599977</v>
       </c>
     </row>
     <row r="13">
@@ -1119,37 +1119,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08718306858066381</v>
+        <v>0.09015409669666202</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09268299832861862</v>
+        <v>0.08139668037184969</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09014491047498392</v>
+        <v>0.08888685987014383</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05285521141386306</v>
+        <v>0.05218538242638517</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1279914351360833</v>
+        <v>0.1258457802107358</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04615800289458462</v>
+        <v>0.03614321826504013</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1374225264473556</v>
+        <v>0.1323290520564881</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03649244754111969</v>
+        <v>0.03437388576418156</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1280188684844724</v>
+        <v>0.125242898645096</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07667860097213977</v>
+        <v>0.07701096740961284</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1218943058307228</v>
+        <v>0.1205791031622306</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1450309824854568</v>
+        <v>0.1270720252147772</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2700474576328457</v>
+        <v>0.2623038749998507</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2404142383259817</v>
+        <v>0.2236319716529636</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1691252285267743</v>
+        <v>0.1674799182074542</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.284959773185021</v>
+        <v>0.3047328123532115</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3168351795551828</v>
+        <v>0.3111045167953629</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1692698158677174</v>
+        <v>0.1655210763322077</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2142500312480143</v>
+        <v>0.2122839979629146</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1635295108197281</v>
+        <v>0.1611047898161344</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2562289613272421</v>
+        <v>0.2521772845291957</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1730872742025922</v>
+        <v>0.1700678388548034</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1773983847429031</v>
+        <v>0.1781611652018252</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1012006265851122</v>
+        <v>0.1024626173776348</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1723256319382092</v>
+        <v>0.1745143516874491</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1265891812119351</v>
+        <v>0.1254201155372864</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1376700286151144</v>
+        <v>0.140052803653948</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1555270452518135</v>
+        <v>0.152887769839622</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2288106977104563</v>
+        <v>0.2322018700237753</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2038002593307093</v>
+        <v>0.2035271149901182</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2605755468808741</v>
+        <v>0.2598920597432475</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1368238534456122</v>
+        <v>0.1389814623451137</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2143718273751925</v>
+        <v>0.2147494683288518</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1770583749625568</v>
+        <v>0.1776675499170874</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2129012802226083</v>
+        <v>0.2129238004065136</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1583393957768921</v>
+        <v>0.1601673574075003</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2440085683395099</v>
+        <v>0.2467196801288049</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1824130204741776</v>
+        <v>0.179985581865851</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1827538680659153</v>
+        <v>0.1840374149562135</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2153772097884268</v>
+        <v>0.2141124340923495</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2964279917741294</v>
+        <v>0.2960016950564946</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2722227264036102</v>
+        <v>0.2750074483892354</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3053258164204916</v>
+        <v>0.3044523926724535</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1813873196547643</v>
+        <v>0.1826034207182883</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2650481235304962</v>
+        <v>0.2670453189495432</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2220561777538166</v>
+        <v>0.2239244632100381</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2453247755155278</v>
+        <v>0.2442791745666995</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>17914</v>
+        <v>16829</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>28598</v>
+        <v>28840</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>24769</v>
+        <v>24963</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>14591</v>
+        <v>14768</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>52080</v>
+        <v>51186</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>59047</v>
+        <v>58832</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>68258</v>
+        <v>68115</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>53756</v>
+        <v>54094</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>72971</v>
+        <v>73371</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>93549</v>
+        <v>93584</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>98897</v>
+        <v>99852</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>73194</v>
+        <v>71885</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>34207</v>
+        <v>33944</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>50397</v>
+        <v>51293</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>44170</v>
+        <v>44799</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>27311</v>
+        <v>26479</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>79000</v>
+        <v>79513</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>87082</v>
+        <v>88053</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>99575</v>
+        <v>102339</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>71742</v>
+        <v>71406</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>105482</v>
+        <v>106175</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>128950</v>
+        <v>129442</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>136067</v>
+        <v>137870</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>94642</v>
+        <v>93545</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>15462</v>
+        <v>15843</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>23366</v>
+        <v>23581</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>15899</v>
+        <v>15165</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>30250</v>
+        <v>31249</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>20355</v>
+        <v>19417</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>52702</v>
+        <v>53395</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>34046</v>
+        <v>33744</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>81371</v>
+        <v>79924</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>38814</v>
+        <v>40969</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>83369</v>
+        <v>84063</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>55212</v>
+        <v>55538</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>117582</v>
+        <v>118401</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>33894</v>
+        <v>33865</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>45933</v>
+        <v>46827</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>31978</v>
+        <v>31792</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>48608</v>
+        <v>49557</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>40563</v>
+        <v>39866</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>81561</v>
+        <v>83042</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>61224</v>
+        <v>60931</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>105155</v>
+        <v>104364</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>66013</v>
+        <v>67721</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>118888</v>
+        <v>120359</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>86679</v>
+        <v>86233</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>146570</v>
+        <v>147763</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6314</v>
+        <v>6512</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>19782</v>
+        <v>20385</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>12361</v>
+        <v>11862</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>19958</v>
+        <v>19189</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>14872</v>
+        <v>14462</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>26834</v>
+        <v>27161</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>30300</v>
+        <v>30302</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>48797</v>
+        <v>49623</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>24540</v>
+        <v>24256</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>52617</v>
+        <v>53216</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>46032</v>
+        <v>47671</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>74231</v>
+        <v>74488</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>19912</v>
+        <v>20185</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>41879</v>
+        <v>41446</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>29499</v>
+        <v>28312</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>35446</v>
+        <v>34734</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>32976</v>
+        <v>33671</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>50634</v>
+        <v>50980</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>57494</v>
+        <v>56273</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>69320</v>
+        <v>69814</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>48151</v>
+        <v>46600</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>84476</v>
+        <v>84951</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>77386</v>
+        <v>77998</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>99278</v>
+        <v>100367</v>
       </c>
     </row>
     <row r="16">
@@ -2143,37 +2143,37 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6809</v>
+        <v>7041</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>8151</v>
+        <v>7158</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>18962</v>
+        <v>18698</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2074</v>
+        <v>2047</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>10886</v>
+        <v>10703</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4917</v>
+        <v>3851</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>28364</v>
+        <v>27313</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>3232</v>
+        <v>3045</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>20886</v>
+        <v>20433</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>14913</v>
+        <v>14977</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>50800</v>
+        <v>50252</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7156</v>
+        <v>6270</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>21090</v>
+        <v>20485</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>21143</v>
+        <v>19667</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>35576</v>
+        <v>35230</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>11180</v>
+        <v>11956</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>26947</v>
+        <v>26459</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>18033</v>
+        <v>17634</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>44221</v>
+        <v>43815</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>14485</v>
+        <v>14270</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>41803</v>
+        <v>41142</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>33662</v>
+        <v>33075</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>73931</v>
+        <v>74249</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>49164</v>
+        <v>49777</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>95526</v>
+        <v>96739</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>73413</v>
+        <v>72735</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>96996</v>
+        <v>98675</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>102821</v>
+        <v>101076</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>169279</v>
+        <v>171788</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>157298</v>
+        <v>157087</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>230637</v>
+        <v>230032</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>156925</v>
+        <v>159400</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>277430</v>
+        <v>277919</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>239340</v>
+        <v>240164</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>338442</v>
+        <v>338477</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>76922</v>
+        <v>77810</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>135262</v>
+        <v>136765</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>105788</v>
+        <v>104380</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>128761</v>
+        <v>129665</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>142388</v>
+        <v>141552</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>219304</v>
+        <v>218988</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>210108</v>
+        <v>212257</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>270246</v>
+        <v>269473</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>208036</v>
+        <v>209431</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>343013</v>
+        <v>345598</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>300166</v>
+        <v>302692</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>389984</v>
+        <v>388322</v>
       </c>
     </row>
     <row r="24">
